--- a/xlsx/賽馬_intext.xlsx
+++ b/xlsx/賽馬_intext.xlsx
@@ -29,7 +29,7 @@
     <t>马术</t>
   </si>
   <si>
-    <t>政策_政策_美國_賽馬</t>
+    <t>体育运动_体育运动_马术_賽馬</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%B3%BD_(%E6%B6%88%E6%AD%A7%E7%BE%A9)</t>
